--- a/rank_analysis/2-3-analysis.xlsx
+++ b/rank_analysis/2-3-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>16.9</t>
         </is>
       </c>
     </row>
@@ -400,12 +400,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>30.45</t>
         </is>
       </c>
     </row>
@@ -417,12 +417,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>73.8</t>
         </is>
       </c>
     </row>
@@ -434,12 +434,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>313.77</t>
+          <t>109.99</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1289.494</t>
+          <t>209.158</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1081.929</t>
+          <t>176.281</t>
         </is>
       </c>
     </row>
